--- a/RUDN/Importance/Varible_muatal_in_Eastern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Eastern Africa.xlsx
@@ -46,12 +46,12 @@
     <t>Female population 80+</t>
   </si>
   <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
@@ -67,27 +67,27 @@
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
@@ -133,57 +133,57 @@
     <t>Male population 10-14</t>
   </si>
   <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, male, interpolated</t>
+    <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
     <t>Female population 05-09</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>Male population 05-09</t>
   </si>
   <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
     <t>Female population 00-04</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
@@ -244,24 +244,24 @@
     <t>Male population 15-19</t>
   </si>
   <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
     <t>Female population 25-29</t>
   </si>
   <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
+    <t>Male population 00-04</t>
   </si>
   <si>
     <t>Male population 25-29</t>
   </si>
   <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
@@ -274,18 +274,18 @@
     <t>Female population 30-34</t>
   </si>
   <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 24, female, interpolated</t>
+    <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 01, male, interpolated</t>
   </si>
   <si>
@@ -310,21 +310,21 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
@@ -352,18 +352,18 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
     <t>Male population 20-24</t>
   </si>
   <si>
@@ -385,18 +385,18 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Country_code</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
@@ -463,33 +463,33 @@
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
@@ -556,12 +556,12 @@
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
@@ -577,27 +577,27 @@
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
@@ -610,24 +610,24 @@
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
@@ -652,12 +652,12 @@
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
@@ -700,15 +700,15 @@
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
+    <t>Years</t>
+  </si>
+  <si>
     <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Years</t>
-  </si>
-  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -748,48 +748,48 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, primary, female (%)</t>
   </si>
   <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+    <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -805,58 +805,61 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
+    <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
+    <t>School enrollment, primary, male (% gross)</t>
   </si>
   <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>Unemployment, female (% of female labor force)</t>
@@ -871,12 +874,15 @@
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
+    <t>Number of people who are undernourished</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
@@ -889,61 +895,82 @@
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% gross)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, male (% of male employment)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Employment in agriculture, female (% of female employment)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>Status under enhanced HIPC initiative</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Status under enhanced HIPC initiative</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>School enrollment, primary (% net)</t>
@@ -952,142 +979,118 @@
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>School enrollment, primary, male (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
+    <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Progression to secondary school, male (%)</t>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
@@ -1099,9 +1102,6 @@
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
@@ -1111,39 +1111,39 @@
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Health expenditure, total (% of GDP)</t>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Government expenditure per student, primary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
@@ -1156,45 +1156,45 @@
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary, male (% gross)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Prevalence of syphilis (% of women attending antenatal care)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
     <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Use of insecticide-treated bed nets (% of under-5 population)</t>
   </si>
   <si>
@@ -1207,13 +1207,13 @@
     <t>Net intake rate in grade 1, female (% of official school-age population)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Reion_sub_code</t>
   </si>
   <si>
     <t>Region_code</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.233424699620957</v>
+        <v>1.233465857289894</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.161863626904156</v>
+        <v>1.170643823902363</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.118327082896505</v>
+        <v>1.112699037336005</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.11550343746681</v>
+        <v>1.112240993997761</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.100128323711093</v>
+        <v>1.097708648562055</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.008868570010233</v>
+        <v>1.005673584737145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9643492797395896</v>
+        <v>0.9636171145528505</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8587222245286579</v>
+        <v>0.8580532496597311</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8499116930147741</v>
+        <v>0.8486158258306915</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8464978955678548</v>
+        <v>0.8458003209072644</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8315403116818709</v>
+        <v>0.8370478805832957</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.830941468880972</v>
+        <v>0.8318128938937503</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1683,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8185855319054669</v>
+        <v>0.8182387265166446</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7967028840729764</v>
+        <v>0.7978099935834471</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7815815264412009</v>
+        <v>0.7810995154549878</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1707,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7767003232183862</v>
+        <v>0.7772005232984176</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7757930418309469</v>
+        <v>0.7752153107385094</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7756633773828989</v>
+        <v>0.7736761550603082</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7738550309584937</v>
+        <v>0.7732699627826967</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7734904597200205</v>
+        <v>0.77321492608122</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7701383538891884</v>
+        <v>0.7693759277065939</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.763251577428842</v>
+        <v>0.76348250250705</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7578741661770656</v>
+        <v>0.7567967624260086</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7570703838966701</v>
+        <v>0.756722519077548</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.7555229976280851</v>
+        <v>0.7540980710434737</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.7501435516029962</v>
+        <v>0.749548485990545</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.7438386552011069</v>
+        <v>0.7437780182450728</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7285529245186377</v>
+        <v>0.729119741924424</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.7284130659014005</v>
+        <v>0.7281129458533817</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.7262117197188167</v>
+        <v>0.7254610663501251</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.7233178821355728</v>
+        <v>0.7235804871775895</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.7184900841427391</v>
+        <v>0.7184725771399383</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.7150492395138603</v>
+        <v>0.7148507405740547</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.7143408011668222</v>
+        <v>0.7146435538468419</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1867,7 +1867,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.7140627401086275</v>
+        <v>0.7136032543261468</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.7099372044069021</v>
+        <v>0.7102245198006223</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7096577022886286</v>
+        <v>0.7096868806266312</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.7092571819441313</v>
+        <v>0.709519786986148</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.7082745768048149</v>
+        <v>0.7086643826260941</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.7081928313316506</v>
+        <v>0.7082745768048149</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.7071967402778467</v>
+        <v>0.7075070183618575</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.706952011914971</v>
+        <v>0.7074593453198639</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.7064791578504335</v>
+        <v>0.7062082161404164</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.7057909931598663</v>
+        <v>0.7056624813031456</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.704541962636692</v>
+        <v>0.7051968144985659</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.704536199992313</v>
+        <v>0.7040886525522843</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1963,7 +1963,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7030236069524221</v>
+        <v>0.7035295802746759</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7030043701906421</v>
+        <v>0.7031252280606353</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.7023338174312994</v>
+        <v>0.7027153698184727</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.7023229614626949</v>
+        <v>0.7026147448427138</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.7020881447272291</v>
+        <v>0.7023444486273585</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.7020780284999857</v>
+        <v>0.7020371635884017</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.7008835857704403</v>
+        <v>0.7017662367186639</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.7008303603633093</v>
+        <v>0.7016779624992227</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.7006071853511546</v>
+        <v>0.7014764450403952</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6999188437391508</v>
+        <v>0.7004440538231842</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6983165690652462</v>
+        <v>0.6989058036987563</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6982464183396941</v>
+        <v>0.6979882812839762</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6972784108236389</v>
+        <v>0.6967448640716047</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6958381348342875</v>
+        <v>0.6957770178258391</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6956004120958279</v>
+        <v>0.6957467311385797</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.694000252086779</v>
+        <v>0.6946728895628222</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.6937390739961984</v>
+        <v>0.6937929626859041</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.6917288634821088</v>
+        <v>0.6915711732873868</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2107,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.6908117729859211</v>
+        <v>0.6906456576507622</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2115,7 +2115,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.690236888406949</v>
+        <v>0.6897033416549152</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2123,7 +2123,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6890529667275023</v>
+        <v>0.6893466844483718</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2131,7 +2131,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.6867436590531146</v>
+        <v>0.6871478349125359</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2139,7 +2139,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.6854168814689436</v>
+        <v>0.685271374061156</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2147,7 +2147,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.6850087690191393</v>
+        <v>0.6851879763475734</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2155,7 +2155,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.684286651753315</v>
+        <v>0.6837679778590755</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2163,7 +2163,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6831042541597392</v>
+        <v>0.6833668592017559</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2171,7 +2171,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.6826048963818465</v>
+        <v>0.6825208768008988</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2179,7 +2179,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.681462484681298</v>
+        <v>0.6822800961702016</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2187,7 +2187,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6810325890936726</v>
+        <v>0.6810617674316752</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2195,7 +2195,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6806912472383537</v>
+        <v>0.6805108155449706</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6804463406708585</v>
+        <v>0.6803146568524978</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.6802482105029539</v>
+        <v>0.6802924655614926</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.6801077504893693</v>
+        <v>0.6802198722476791</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.6800827001799195</v>
+        <v>0.6797069926400674</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.679935897761438</v>
+        <v>0.6795339258084403</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6799088922459964</v>
+        <v>0.6794799070926127</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6791075674028213</v>
+        <v>0.6790947627485222</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6779431047854465</v>
+        <v>0.6779722831234483</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.6776941170482993</v>
+        <v>0.6777316320543014</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6776898656153909</v>
+        <v>0.6774276819306793</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.6776159390517087</v>
+        <v>0.6772661667240691</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.674924992805864</v>
+        <v>0.6743734216363571</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2299,7 +2299,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.6748125852797418</v>
+        <v>0.6742613448987642</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6743296965668786</v>
+        <v>0.6740295765188589</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.672372218332864</v>
+        <v>0.6729711421129019</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2323,7 +2323,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6722007088357005</v>
+        <v>0.671758158934384</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2331,7 +2331,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6694386753617749</v>
+        <v>0.6698099218640055</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2339,7 +2339,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.6691490462610128</v>
+        <v>0.6692951573370229</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2347,7 +2347,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.666066576064285</v>
+        <v>0.6664265044799587</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2355,7 +2355,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6607441251588955</v>
+        <v>0.6603955651411999</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6596449013319403</v>
+        <v>0.6594292648381082</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6570473297824146</v>
+        <v>0.656482160084134</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6568278485987742</v>
+        <v>0.656329674299168</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2387,7 +2387,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.6559640921017511</v>
+        <v>0.6546398044585753</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.652648144946288</v>
+        <v>0.6525396294696666</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6523972880888063</v>
+        <v>0.652228890387101</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6474876364154598</v>
+        <v>0.6470499613454317</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.644868296419983</v>
+        <v>0.644318076331948</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6436796267425398</v>
+        <v>0.6429793466304954</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2435,7 +2435,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6426205622737928</v>
+        <v>0.6421930228369663</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2443,7 +2443,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6416967144884218</v>
+        <v>0.6416329902168751</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2451,7 +2451,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6404494589005334</v>
+        <v>0.6400768960823027</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2459,7 +2459,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.639435816571845</v>
+        <v>0.6396292266440509</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2467,7 +2467,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6377804676752996</v>
+        <v>0.6376839817124935</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2475,7 +2475,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.635585732040072</v>
+        <v>0.6350054999472348</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2483,7 +2483,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6355693956949939</v>
+        <v>0.6345052157604769</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2491,7 +2491,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6345052157604769</v>
+        <v>0.6334048437506232</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2499,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6332353508438193</v>
+        <v>0.6331648859557726</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2507,7 +2507,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.6331648859557726</v>
+        <v>0.6326586331599011</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2515,7 +2515,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.6313548987341711</v>
+        <v>0.6302598509146802</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2523,7 +2523,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.6130639328529432</v>
+        <v>0.6125440273650387</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2539,7 +2539,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.580147282067625</v>
+        <v>0.5852460382380622</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2547,7 +2547,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.5782759230197598</v>
+        <v>0.5781008529917488</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2555,7 +2555,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5755155002279515</v>
+        <v>0.576716544228203</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2571,7 +2571,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5588295728446471</v>
+        <v>0.5622634410091463</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2579,7 +2579,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5579278336593734</v>
+        <v>0.5588295728446471</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2587,7 +2587,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5524948294443353</v>
+        <v>0.5538374871341984</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2595,7 +2595,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5515363563948508</v>
+        <v>0.5527282561483502</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2603,7 +2603,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5443139254980216</v>
+        <v>0.5451542616324756</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2611,7 +2611,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.5443139254980216</v>
+        <v>0.5451542616324756</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2627,7 +2627,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.5373415536502244</v>
+        <v>0.5387007981374596</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2635,7 +2635,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.5360742463209203</v>
+        <v>0.5371246664889875</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2651,7 +2651,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.5293754930522883</v>
+        <v>0.5305094576170881</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2683,7 +2683,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.5038473480798333</v>
+        <v>0.5055693295934587</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2691,7 +2691,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.5024277690300041</v>
+        <v>0.5037175231555124</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2715,7 +2715,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4935032719459014</v>
+        <v>0.4940454987480476</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2723,7 +2723,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.4931489148184669</v>
+        <v>0.492414234522863</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2731,7 +2731,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4874459921664189</v>
+        <v>0.4850735952442591</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2739,7 +2739,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4835960016820597</v>
+        <v>0.4835156253768371</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2755,7 +2755,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4525065320895858</v>
+        <v>0.4526975175746895</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2763,7 +2763,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.42563038605519</v>
+        <v>0.4271927757169365</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2771,7 +2771,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.4241290042707906</v>
+        <v>0.4245671474424979</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2779,7 +2779,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4204562525026581</v>
+        <v>0.4242953694583202</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2787,7 +2787,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4204562525026581</v>
+        <v>0.4198503873267807</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2795,7 +2795,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.41996196548495</v>
+        <v>0.4191710664521273</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2803,7 +2803,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4159869106554313</v>
+        <v>0.4190907062841709</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2811,7 +2811,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.4157223517690425</v>
+        <v>0.4190907062841709</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2819,7 +2819,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4118170546968249</v>
+        <v>0.4157223517690425</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2827,7 +2827,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4115423046703932</v>
+        <v>0.4124458867476233</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2835,7 +2835,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4095218119340056</v>
+        <v>0.4124032953850509</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2843,7 +2843,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4089668698590416</v>
+        <v>0.4095218119340056</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2851,7 +2851,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4070062344288909</v>
+        <v>0.4071999571771623</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2859,7 +2859,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.4050465254643014</v>
+        <v>0.4049359966159467</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.389631895379793</v>
+        <v>0.3907227984507609</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2899,7 +2899,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.3863262244109604</v>
+        <v>0.3877325680990813</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2931,7 +2931,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.3762856110470546</v>
+        <v>0.3770297794403469</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2947,7 +2947,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.3655364817991309</v>
+        <v>0.3652335481909961</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2955,7 +2955,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3650689735203607</v>
+        <v>0.3644639490522676</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2963,7 +2963,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.3633671426952962</v>
+        <v>0.3644175628633635</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2971,7 +2971,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.3630226742943077</v>
+        <v>0.3628725989553934</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2979,7 +2979,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3588990117369646</v>
+        <v>0.3580932324189743</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2995,7 +2995,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3479485757099314</v>
+        <v>0.3446770271262274</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3027,7 +3027,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3170209369464997</v>
+        <v>0.3176441024268575</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3035,7 +3035,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.316482274300359</v>
+        <v>0.3170209369464997</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3059,7 +3059,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3117863469977673</v>
+        <v>0.3119914290305803</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3067,7 +3067,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.309369803553488</v>
+        <v>0.3100367814697842</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3083,7 +3083,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3031293815377731</v>
+        <v>0.3069600281646179</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3091,7 +3091,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3019530253634977</v>
+        <v>0.3051163008542956</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3099,7 +3099,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3008029088308197</v>
+        <v>0.2997011009257413</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3107,7 +3107,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.2976336572037988</v>
+        <v>0.296886431648355</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3115,7 +3115,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.2939560344368479</v>
+        <v>0.2959003790612311</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3123,7 +3123,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.2938637074071431</v>
+        <v>0.2953715090759994</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3131,7 +3131,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.291839688782386</v>
+        <v>0.2949113676345763</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3139,7 +3139,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.2877703607948505</v>
+        <v>0.2887683565797268</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3147,7 +3147,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.2861014708221254</v>
+        <v>0.286911999788469</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3155,7 +3155,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.2858159111061152</v>
+        <v>0.2854582977951234</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3163,7 +3163,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.2838660846290331</v>
+        <v>0.2826769726205933</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3171,7 +3171,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.28236216352689</v>
+        <v>0.2822538828076093</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3179,7 +3179,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.2822205361356069</v>
+        <v>0.2797479574805943</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3187,7 +3187,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.2808980262196199</v>
+        <v>0.2797089142111804</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3195,7 +3195,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2803440714595971</v>
+        <v>0.2778503588050012</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3203,7 +3203,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.2765282730030016</v>
+        <v>0.2758533597258852</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3211,7 +3211,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.27624191939843</v>
+        <v>0.2753391609945621</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3227,7 +3227,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.2705636512246725</v>
+        <v>0.271253486126692</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3243,7 +3243,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.2683730567933689</v>
+        <v>0.2684190210282884</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3251,7 +3251,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.2633075840936301</v>
+        <v>0.2660868484237646</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3267,7 +3267,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.2614739640938371</v>
+        <v>0.2593030957464979</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3283,7 +3283,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.2519785492983362</v>
+        <v>0.2524355166222922</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3291,7 +3291,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.2503346762861578</v>
+        <v>0.2519785492983362</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3299,7 +3299,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.2488315926994202</v>
+        <v>0.2434794518430778</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3315,7 +3315,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.239768088916315</v>
+        <v>0.240499674271478</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3323,7 +3323,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2355192541690561</v>
+        <v>0.237428171040424</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3331,7 +3331,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.2334800210489669</v>
+        <v>0.2329985116071667</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3347,7 +3347,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.2266836529310403</v>
+        <v>0.2271829614171739</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3363,7 +3363,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.2221461315863802</v>
+        <v>0.2233108696757584</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3371,7 +3371,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.2194620424227969</v>
+        <v>0.2206822274665114</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3379,7 +3379,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.2169003247186552</v>
+        <v>0.2143406064905939</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3395,7 +3395,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2058647977483217</v>
+        <v>0.2082570813496549</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3403,7 +3403,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.2053032678439841</v>
+        <v>0.2081754353347371</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3411,7 +3411,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.2029995712163997</v>
+        <v>0.2054601660681308</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3419,7 +3419,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2003436108132211</v>
+        <v>0.2029995712163997</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3427,7 +3427,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1976180880643095</v>
+        <v>0.1982897853938828</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3443,7 +3443,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1895637675240542</v>
+        <v>0.1893063865094247</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3451,7 +3451,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1872234604894112</v>
+        <v>0.1883103812154376</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3467,7 +3467,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1795952000866341</v>
+        <v>0.1809957603107237</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3475,7 +3475,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1745403518565924</v>
+        <v>0.1744752095205879</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3483,7 +3483,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.1734854150666969</v>
+        <v>0.1720097477861784</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3491,7 +3491,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1592797601250917</v>
+        <v>0.1592320137538155</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3539,7 +3539,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.1535052625216524</v>
+        <v>0.1533705288995126</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3547,7 +3547,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.1533705288995126</v>
+        <v>0.1532413675131605</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3571,7 +3571,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.1515242505300023</v>
+        <v>0.1508266910930811</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3579,7 +3579,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.1510788535058913</v>
+        <v>0.1502866046063478</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3587,7 +3587,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.150330264211038</v>
+        <v>0.1498436703658796</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3595,7 +3595,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1502866046063478</v>
+        <v>0.1496134915530025</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3603,7 +3603,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.1498036406940109</v>
+        <v>0.1477867590463109</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3611,7 +3611,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.1496134915530025</v>
+        <v>0.1471983236414416</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3619,7 +3619,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.148241493321096</v>
+        <v>0.1469408933773457</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3627,7 +3627,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.1462181315953306</v>
+        <v>0.1465779141322581</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3635,7 +3635,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.1454656903733453</v>
+        <v>0.1453559784085017</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3643,7 +3643,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.1449044969450513</v>
+        <v>0.1445694115017955</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3667,7 +3667,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.1332847305874842</v>
+        <v>0.1364359910916859</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3683,7 +3683,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.1285711304065011</v>
+        <v>0.1287621158916044</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3691,7 +3691,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.1263034924784485</v>
+        <v>0.1284079010556405</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3699,7 +3699,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.1262526713155512</v>
+        <v>0.1263034924784485</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3707,7 +3707,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.1254134773218127</v>
+        <v>0.1262806825200333</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3715,7 +3715,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.1231687242868411</v>
+        <v>0.1237047599874369</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3723,7 +3723,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.1223041997633473</v>
+        <v>0.1231687242868411</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3731,7 +3731,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.1220273174597506</v>
+        <v>0.1199264771236161</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3739,7 +3739,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.1193608462920144</v>
+        <v>0.1192149374710267</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3747,7 +3747,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.1181645173029595</v>
+        <v>0.116504340504729</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3755,7 +3755,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.1167187027858112</v>
+        <v>0.1163598053356827</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3763,7 +3763,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.1163598053356827</v>
+        <v>0.1146178624496768</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3771,7 +3771,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.1115894821743868</v>
+        <v>0.109834147922538</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3787,7 +3787,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.1087136997432667</v>
+        <v>0.108819666969326</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3795,7 +3795,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.1069342397397124</v>
+        <v>0.1058360782121088</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3803,7 +3803,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.1059129567462875</v>
+        <v>0.1042556683111411</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3811,7 +3811,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.1055533298493139</v>
+        <v>0.1041655645072821</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3819,7 +3819,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.1047198741547284</v>
+        <v>0.1040234283683512</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3827,7 +3827,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1043168715981766</v>
+        <v>0.1038121164101531</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3835,7 +3835,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.1012236505441235</v>
+        <v>0.1016948725434152</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3843,7 +3843,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.1011524151534164</v>
+        <v>0.1012236505441235</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3851,7 +3851,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.1011008934790081</v>
+        <v>0.1012236505441235</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3859,7 +3859,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.1009301419959554</v>
+        <v>0.1011008934790081</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3867,7 +3867,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.100644452375348</v>
+        <v>0.1009301419959554</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3875,7 +3875,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.1003963855784644</v>
+        <v>0.100892218257679</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3883,7 +3883,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.09993559352068493</v>
+        <v>0.1003327619281047</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3891,7 +3891,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.09951188061585015</v>
+        <v>0.09856386593730915</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3899,7 +3899,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.0993435385168655</v>
+        <v>0.09783475318455048</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3907,7 +3907,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.09904737416718534</v>
+        <v>0.0974110402797157</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3915,7 +3915,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.0976588681759587</v>
+        <v>0.09724269818073106</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3923,7 +3923,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.09643742614507445</v>
+        <v>0.0969465338310509</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3931,7 +3931,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.09511543593786298</v>
+        <v>0.09527459050878218</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3939,7 +3939,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.09472793270706314</v>
+        <v>0.09491264915535091</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3947,7 +3947,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.09396831750193191</v>
+        <v>0.09418826935587488</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3955,7 +3955,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.0923652302604181</v>
+        <v>0.09309681561558092</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -3963,7 +3963,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.09194418990591324</v>
+        <v>0.0926270923709287</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3971,7 +3971,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.09153285256380084</v>
+        <v>0.09258327273186806</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3979,7 +3979,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.091502205233573</v>
+        <v>0.09045503893984352</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3987,7 +3987,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.09115955955071042</v>
+        <v>0.08940136489743855</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3995,7 +3995,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.08989710985885146</v>
+        <v>0.0892245626539554</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4003,7 +4003,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.08979269993349837</v>
+        <v>0.08905871921457598</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4011,7 +4011,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.08977277463141098</v>
+        <v>0.0889757517653964</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4019,7 +4019,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.0889757517653964</v>
+        <v>0.08884194065164608</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4027,7 +4027,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.08884194065164608</v>
+        <v>0.08836568881036677</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4035,7 +4035,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.08817414248588817</v>
+        <v>0.08767193429527653</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4043,7 +4043,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.08735903614930129</v>
+        <v>0.08697563144010667</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4051,7 +4051,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.08669709904240075</v>
+        <v>0.0845962587062663</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4059,7 +4059,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.08623767120521797</v>
+        <v>0.08413683086908352</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4067,7 +4067,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.08491412809392873</v>
+        <v>0.08325919117712832</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4075,7 +4075,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.0842694641220354</v>
+        <v>0.08324508088587912</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4083,7 +4083,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.08412743333733674</v>
+        <v>0.08307919323747037</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4091,7 +4091,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.08312862477479155</v>
+        <v>0.08305021612938579</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4099,7 +4099,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.08307919323747037</v>
+        <v>0.08293598497156918</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4107,7 +4107,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.0822087710090611</v>
+        <v>0.08209314783671484</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4115,7 +4115,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.08188556480350195</v>
+        <v>0.08167297976948795</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4123,7 +4123,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.08157341327267442</v>
+        <v>0.08029665832832356</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4131,7 +4131,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.08119535113878129</v>
+        <v>0.07947257293653998</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4139,7 +4139,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.08104272766864762</v>
+        <v>0.07920684518076371</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4147,7 +4147,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.08062255960142073</v>
+        <v>0.07772184507441637</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4155,7 +4155,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.07948075301239044</v>
+        <v>0.07723461079401983</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4163,7 +4163,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.07723461079401983</v>
+        <v>0.07664391171829887</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4171,7 +4171,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.07559349155023165</v>
+        <v>0.07604392813512195</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4179,7 +4179,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.07528418602333953</v>
+        <v>0.07438549321288201</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4187,7 +4187,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.07499350796705473</v>
+        <v>0.07355858927510073</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4195,7 +4195,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.07216522510236922</v>
+        <v>0.07064741993075141</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4203,7 +4203,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.0715461127412087</v>
+        <v>0.07058574914276128</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4211,7 +4211,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.07107834200909302</v>
+        <v>0.06994700080170335</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4219,7 +4219,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.07087962400150882</v>
+        <v>0.0698292038334416</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4227,7 +4227,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.07087962400150882</v>
+        <v>0.0698292038334416</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4235,7 +4235,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.07037228388586447</v>
+        <v>0.06813399675961174</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4243,7 +4243,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.06912745269032317</v>
+        <v>0.06634130153382856</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4251,7 +4251,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.06889658063363613</v>
+        <v>0.06634130153382856</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4259,7 +4259,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.06724010317256068</v>
+        <v>0.06585576849884078</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4267,7 +4267,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.06690603092968295</v>
+        <v>0.06561951429993274</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4275,7 +4275,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.06634130153382856</v>
+        <v>0.06561760605475042</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4283,7 +4283,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.06634130153382856</v>
+        <v>0.06513926283642624</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4291,7 +4291,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.06585576849884078</v>
+        <v>0.06454143621078057</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4299,7 +4299,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.06561951429993274</v>
+        <v>0.0642800776786252</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4307,7 +4307,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.0642800776786252</v>
+        <v>0.06424125292977645</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4315,7 +4315,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.06424125292977645</v>
+        <v>0.0638925894885658</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4323,7 +4323,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.0638925894885658</v>
+        <v>0.06382466483824545</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4339,7 +4339,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.06302082552548871</v>
+        <v>0.06298118702858169</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4347,7 +4347,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.06177138669066773</v>
+        <v>0.06251756796959462</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4355,7 +4355,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.0616726586944103</v>
+        <v>0.06243396200414786</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4363,7 +4363,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.06138354183608064</v>
+        <v>0.06177138669066773</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4371,7 +4371,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.060928505080593</v>
+        <v>0.06084310078649557</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4379,7 +4379,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.06084310078649557</v>
+        <v>0.06035841188206392</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4387,7 +4387,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.05923216583426472</v>
+        <v>0.06028258600233194</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4395,7 +4395,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.05471154887709306</v>
+        <v>0.05955156495219049</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4403,7 +4403,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.05471154887709306</v>
+        <v>0.05547496422705844</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4411,7 +4411,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.05442454405899122</v>
+        <v>0.05547496422705844</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4419,7 +4419,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.05442454405899122</v>
+        <v>0.05471154887709306</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4427,7 +4427,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.05288265373072676</v>
+        <v>0.05471154887709306</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4435,7 +4435,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.05117966998175749</v>
+        <v>0.05225267720879412</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4443,7 +4443,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.05045124669744094</v>
+        <v>0.05117966998175771</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4451,7 +4451,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.04722315826963119</v>
+        <v>0.04942774547665874</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4459,7 +4459,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.04202222031500802</v>
+        <v>0.04722315826963119</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4467,7 +4467,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.04121527881732256</v>
+        <v>0.04447320070716487</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4475,7 +4475,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.04099420998527292</v>
+        <v>0.04121527881732256</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4483,7 +4483,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.03920307864354378</v>
+        <v>0.039203078643544</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4499,7 +4499,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.03767968623852846</v>
+        <v>0.03765168000952945</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4507,7 +4507,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.03415344146967159</v>
+        <v>0.03318665129697007</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4531,7 +4531,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.03162399302185204</v>
+        <v>0.03183668835993325</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4539,7 +4539,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.03130868834918976</v>
+        <v>0.03162399302185204</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4547,7 +4547,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.030735670904813</v>
+        <v>0.0308526842129635</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4555,7 +4555,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.03043662730404018</v>
+        <v>0.03079771025626887</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4563,7 +4563,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.02834672986411202</v>
+        <v>0.02774260852005606</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4571,7 +4571,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.02617812875672998</v>
+        <v>0.0265031765439725</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4579,7 +4579,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.02405219615181564</v>
+        <v>0.02590337937160569</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4587,7 +4587,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.02113547220874024</v>
+        <v>0.02323695228614153</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4595,7 +4595,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.0194461564699735</v>
+        <v>0.02009550711932429</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4619,7 +4619,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.01466796942043036</v>
+        <v>0.01656008990498825</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4627,7 +4627,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.0114704489430637</v>
+        <v>0.01394724358436505</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4635,7 +4635,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.01092897936041637</v>
+        <v>0.01247843533097237</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4643,7 +4643,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.01060644258438304</v>
+        <v>0.0114704489430637</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4651,7 +4651,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.01053707694972372</v>
+        <v>0.0112557932337336</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4659,7 +4659,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.009825668370053497</v>
+        <v>0.01053707694972372</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4675,7 +4675,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.008398347411815887</v>
+        <v>0.008340466986630712</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4699,7 +4699,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.008340466986630712</v>
+        <v>0.00602146458502717</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4707,7 +4707,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.00742070182991772</v>
+        <v>0.00602146458502717</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4715,7 +4715,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.003793300592157323</v>
+        <v>0.005336363259866195</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4723,7 +4723,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.003793300592157323</v>
+        <v>0.00395580182765265</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4755,7 +4755,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.003110373514563669</v>
+        <v>0.001079561189633704</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4763,7 +4763,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.0007165050357120784</v>
+        <v>0.0007669362810149849</v>
       </c>
     </row>
     <row r="400" spans="1:2">
